--- a/col_maps.xlsx
+++ b/col_maps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39932d735537154f/Project/Python/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39932d735537154f/Project/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="409" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D990BB29-FE83-452C-86BF-2F078B707C02}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97146A64-39E4-48BA-A515-203DA88BA440}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="1657">
   <si>
     <t>报告期</t>
   </si>
@@ -5043,6 +5043,158 @@
   </si>
   <si>
     <t>BUY_RESALE_FINASSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEND_FUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆出资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放委托贷款及垫款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAN_ADVANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付票据及应付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收存款及同业存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCEPT_DEPOSIT_INTERBANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER_CURRENT_LIAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收资本(或股本)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:库存股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TREASURY_SHARES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般风险准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL_RISK_RESERVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他权益工具投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER_EQUITY_INVEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债权投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产其他项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放贷款及垫款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非流动负债其他项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动负债其他项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT_LIAB_OTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衍生金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*毛利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*核心利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*归母净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*扣非净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收票据及应收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款项融资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在建工程合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负债</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5429,10 +5581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5472,160 +5624,106 @@
         <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
       <c r="D3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1431</v>
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
-      </c>
       <c r="D4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1431</v>
+        <v>1644</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>1645</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1432</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>255</v>
-      </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>1647</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1432</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>888</v>
+        <v>1648</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1432</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>1649</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1432</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>1430</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1432</v>
+        <v>284</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1432</v>
+        <v>285</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1432</v>
@@ -5633,16 +5731,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>895</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>870</v>
+        <v>287</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1432</v>
@@ -5650,13 +5748,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1432</v>
@@ -5664,118 +5765,115 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1433</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1433</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1433</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1433</v>
+        <v>288</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D18" t="s">
-        <v>881</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1433</v>
+        <v>870</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1433</v>
+        <v>872</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>1433</v>
@@ -5783,118 +5881,118 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1435</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>873</v>
+        <v>290</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>896</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>881</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>874</v>
+        <v>24</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1435</v>
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1435</v>
@@ -5902,81 +6000,84 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1435</v>
+        <v>293</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>1435</v>
+        <v>873</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>882</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>1435</v>
+        <v>294</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>1435</v>
+        <v>874</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>883</v>
+        <v>295</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>1435</v>
@@ -5984,140 +6085,240 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1437</v>
+        <v>296</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D34" t="s">
-        <v>300</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1437</v>
+        <v>297</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C36" t="s">
-        <v>903</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>885</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
+        <v>883</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>919</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
-        <v>886</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>1436</v>
+        <v>299</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
+        <v>903</v>
+      </c>
+      <c r="D42" t="s">
+        <v>884</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" t="s">
+        <v>885</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>919</v>
+      </c>
+      <c r="D45" t="s">
+        <v>886</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B46" t="s">
         <v>230</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
         <v>45</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D46" t="s">
         <v>887</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>1436</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8496,10 +8697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1285F2E-B767-426D-8E9D-2A00BC051215}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8564,47 +8765,47 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>1620</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>1619</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>1620</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>1620</v>
       </c>
       <c r="E4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>316</v>
-      </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>1642</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="E6" t="s">
         <v>313</v>
@@ -8612,64 +8813,64 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1614</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>844</v>
+        <v>1650</v>
       </c>
       <c r="E7" t="s">
-        <v>851</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>1614</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E8" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
       <c r="B9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" t="s">
+        <v>843</v>
+      </c>
+      <c r="E9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>381</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>401</v>
       </c>
-      <c r="D9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C10" t="s">
-        <v>318</v>
-      </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>1651</v>
       </c>
       <c r="E10" t="s">
         <v>313</v>
@@ -8677,16 +8878,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>631</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
         <v>313</v>
@@ -8694,126 +8895,126 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>1573</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>366</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>403</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>845</v>
-      </c>
-      <c r="E12" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" t="s">
-        <v>402</v>
-      </c>
-      <c r="D13" t="s">
-        <v>847</v>
       </c>
       <c r="E13" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>320</v>
-      </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="D14" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
       <c r="B15" t="s">
-        <v>1618</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>1617</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
-        <v>1617</v>
+        <v>846</v>
       </c>
       <c r="E15" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>321</v>
-      </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>1618</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>1617</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>1617</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>1596</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>367</v>
       </c>
       <c r="C17" t="s">
-        <v>1596</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>1596</v>
+        <v>1652</v>
       </c>
       <c r="E17" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>1596</v>
+      </c>
       <c r="B18" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>1596</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>1596</v>
       </c>
       <c r="E18" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>323</v>
-      </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>549</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>1643</v>
       </c>
       <c r="D19" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="E19" t="s">
         <v>313</v>
@@ -8821,55 +9022,61 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E20" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>324</v>
+      </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+      <c r="C21" t="s">
+        <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>489</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>325</v>
-      </c>
       <c r="B22" t="s">
-        <v>649</v>
-      </c>
-      <c r="C22" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" t="s">
-        <v>325</v>
+        <v>378</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1637</v>
       </c>
       <c r="E22" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>325</v>
+      </c>
       <c r="B23" t="s">
-        <v>1611</v>
+        <v>649</v>
+      </c>
+      <c r="C23" t="s">
+        <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>1608</v>
+        <v>1654</v>
       </c>
       <c r="E23" t="s">
         <v>313</v>
@@ -8877,13 +9084,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C24" t="s">
-        <v>417</v>
+        <v>1611</v>
       </c>
       <c r="D24" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="E24" t="s">
         <v>313</v>
@@ -8894,55 +9098,55 @@
         <v>1609</v>
       </c>
       <c r="C25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D25" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E25" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>1600</v>
-      </c>
       <c r="B26" t="s">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="C26" t="s">
-        <v>1600</v>
+        <v>418</v>
       </c>
       <c r="D26" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>326</v>
+        <v>1607</v>
+      </c>
+      <c r="E26" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="B27" t="s">
-        <v>1616</v>
+        <v>1601</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1600</v>
       </c>
       <c r="D27" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>1615</v>
+      </c>
       <c r="B28" t="s">
-        <v>551</v>
-      </c>
-      <c r="C28" t="s">
-        <v>415</v>
+        <v>1616</v>
       </c>
       <c r="D28" t="s">
-        <v>415</v>
+        <v>1615</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>326</v>
@@ -8950,47 +9154,41 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>382</v>
+        <v>1622</v>
       </c>
       <c r="C29" t="s">
-        <v>419</v>
+        <v>1638</v>
       </c>
       <c r="D29" t="s">
-        <v>419</v>
+        <v>1621</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>328</v>
-      </c>
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>1636</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>330</v>
-      </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="D31" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>326</v>
@@ -8998,16 +9196,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>326</v>
@@ -9015,16 +9213,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>1579</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s">
-        <v>573</v>
+        <v>1635</v>
       </c>
       <c r="C33" t="s">
-        <v>427</v>
+        <v>1634</v>
       </c>
       <c r="D33" t="s">
-        <v>857</v>
+        <v>1634</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>326</v>
@@ -9032,30 +9230,33 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
       <c r="B35" t="s">
-        <v>662</v>
+        <v>589</v>
       </c>
       <c r="C35" t="s">
-        <v>432</v>
+        <v>1623</v>
       </c>
       <c r="D35" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>326</v>
@@ -9063,47 +9264,47 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>1579</v>
       </c>
       <c r="B36" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="D36" t="s">
-        <v>335</v>
+        <v>857</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>333</v>
+      </c>
       <c r="B37" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C37" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>1653</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>336</v>
-      </c>
       <c r="B38" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="C38" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="D38" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>326</v>
@@ -9111,33 +9312,30 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>1602</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s">
-        <v>1603</v>
+        <v>585</v>
       </c>
       <c r="C39" t="s">
-        <v>1602</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>1602</v>
+        <v>335</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>338</v>
-      </c>
       <c r="B40" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C40" t="s">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="D40" t="s">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>326</v>
@@ -9145,27 +9343,33 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="C41" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D41" t="s">
-        <v>339</v>
+        <v>1655</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>1602</v>
+      </c>
       <c r="B42" t="s">
-        <v>607</v>
+        <v>1603</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1602</v>
       </c>
       <c r="D42" t="s">
-        <v>495</v>
+        <v>1602</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>326</v>
@@ -9173,16 +9377,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s">
-        <v>653</v>
+        <v>558</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>326</v>
@@ -9190,81 +9394,78 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>1583</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>618</v>
       </c>
       <c r="C44" t="s">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>342</v>
-      </c>
       <c r="B45" t="s">
-        <v>642</v>
-      </c>
-      <c r="C45" t="s">
-        <v>342</v>
-      </c>
-      <c r="D45" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" t="s">
-        <v>341</v>
+        <v>607</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>1604</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s">
-        <v>1610</v>
+        <v>653</v>
+      </c>
+      <c r="C46" t="s">
+        <v>340</v>
       </c>
       <c r="D46" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E46" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>1583</v>
       </c>
       <c r="B47" t="s">
-        <v>561</v>
+        <v>374</v>
       </c>
       <c r="C47" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
-      </c>
-      <c r="E47" t="s">
-        <v>341</v>
+        <v>435</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E48" t="s">
         <v>341</v>
@@ -9272,16 +9473,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>1585</v>
+        <v>1604</v>
       </c>
       <c r="B49" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" t="s">
-        <v>441</v>
+        <v>1610</v>
       </c>
       <c r="D49" t="s">
-        <v>497</v>
+        <v>1604</v>
       </c>
       <c r="E49" t="s">
         <v>341</v>
@@ -9289,33 +9487,30 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="C50" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="D50" t="s">
-        <v>856</v>
+        <v>440</v>
       </c>
       <c r="E50" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>1612</v>
-      </c>
       <c r="B51" t="s">
-        <v>1613</v>
+        <v>1626</v>
       </c>
       <c r="C51" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
       <c r="D51" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
       <c r="E51" t="s">
         <v>341</v>
@@ -9323,16 +9518,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="C52" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D52" t="s">
-        <v>346</v>
+        <v>1624</v>
       </c>
       <c r="E52" t="s">
         <v>341</v>
@@ -9340,16 +9535,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>1585</v>
       </c>
       <c r="B53" t="s">
-        <v>645</v>
+        <v>370</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
       <c r="D53" t="s">
-        <v>347</v>
+        <v>497</v>
       </c>
       <c r="E53" t="s">
         <v>341</v>
@@ -9357,16 +9552,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
       <c r="C54" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
+        <v>856</v>
       </c>
       <c r="E54" t="s">
         <v>341</v>
@@ -9374,30 +9569,33 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>349</v>
+        <v>1612</v>
       </c>
       <c r="B55" t="s">
-        <v>655</v>
+        <v>1613</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>1612</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>1612</v>
       </c>
       <c r="E55" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>346</v>
+      </c>
       <c r="B56" t="s">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>346</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>1656</v>
       </c>
       <c r="E56" t="s">
         <v>341</v>
@@ -9405,27 +9603,33 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="C57" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D57" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E57" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>348</v>
+      </c>
       <c r="B58" t="s">
-        <v>555</v>
+        <v>648</v>
+      </c>
+      <c r="C58" t="s">
+        <v>348</v>
       </c>
       <c r="D58" t="s">
-        <v>501</v>
+        <v>348</v>
       </c>
       <c r="E58" t="s">
         <v>341</v>
@@ -9433,16 +9637,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s">
-        <v>375</v>
+        <v>655</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E59" t="s">
         <v>341</v>
@@ -9450,83 +9654,83 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="C60" t="s">
-        <v>356</v>
+        <v>456</v>
       </c>
       <c r="D60" t="s">
-        <v>356</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>848</v>
+        <v>456</v>
+      </c>
+      <c r="E60" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>352</v>
+      </c>
       <c r="B61" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="D61" t="s">
-        <v>460</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>848</v>
+        <v>352</v>
+      </c>
+      <c r="E61" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>590</v>
+        <v>1627</v>
       </c>
       <c r="C62" t="s">
-        <v>463</v>
+        <v>1628</v>
       </c>
       <c r="D62" t="s">
-        <v>463</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>848</v>
+        <v>1628</v>
+      </c>
+      <c r="E62" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>603</v>
-      </c>
-      <c r="C63" t="s">
-        <v>464</v>
-      </c>
-      <c r="D63" t="s">
-        <v>464</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>848</v>
+        <v>1641</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>354</v>
+      </c>
       <c r="B64" t="s">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="C64" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="D64" t="s">
-        <v>503</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>848</v>
+        <v>354</v>
+      </c>
+      <c r="E64" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="C65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>848</v>
@@ -9534,13 +9738,13 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="C66" t="s">
-        <v>358</v>
+        <v>460</v>
       </c>
       <c r="D66" t="s">
-        <v>358</v>
+        <v>460</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>848</v>
@@ -9548,10 +9752,13 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>610</v>
+        <v>590</v>
+      </c>
+      <c r="C67" t="s">
+        <v>463</v>
       </c>
       <c r="D67" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>848</v>
@@ -9559,13 +9766,13 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>654</v>
+        <v>603</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="D68" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>848</v>
@@ -9573,13 +9780,13 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>652</v>
+        <v>556</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="D69" t="s">
-        <v>360</v>
+        <v>503</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>848</v>
@@ -9587,83 +9794,80 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>639</v>
+        <v>559</v>
       </c>
       <c r="C70" t="s">
-        <v>471</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>471</v>
-      </c>
-      <c r="E70" t="s">
-        <v>850</v>
+        <v>357</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>358</v>
       </c>
       <c r="D71" t="s">
-        <v>472</v>
-      </c>
-      <c r="E71" t="s">
-        <v>850</v>
+        <v>358</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>546</v>
-      </c>
-      <c r="C72" t="s">
-        <v>362</v>
-      </c>
-      <c r="D72" t="s">
-        <v>362</v>
-      </c>
-      <c r="E72" t="s">
-        <v>850</v>
+        <v>610</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>177</v>
+        <v>654</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" t="s">
-        <v>850</v>
+        <v>359</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C74" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="D74" t="s">
-        <v>476</v>
-      </c>
-      <c r="E74" t="s">
-        <v>850</v>
+        <v>360</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>1629</v>
       </c>
       <c r="E75" t="s">
         <v>850</v>
@@ -9671,13 +9875,13 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="D76" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="E76" t="s">
         <v>850</v>
@@ -9685,13 +9889,13 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>656</v>
+        <v>546</v>
       </c>
       <c r="C77" t="s">
-        <v>480</v>
+        <v>362</v>
       </c>
       <c r="D77" t="s">
-        <v>511</v>
+        <v>362</v>
       </c>
       <c r="E77" t="s">
         <v>850</v>
@@ -9699,13 +9903,13 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>604</v>
+        <v>1631</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>1630</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>1630</v>
       </c>
       <c r="E78" t="s">
         <v>850</v>
@@ -9713,13 +9917,13 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>650</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>481</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s">
-        <v>512</v>
+        <v>301</v>
       </c>
       <c r="E79" t="s">
         <v>850</v>
@@ -9727,15 +9931,113 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
+        <v>644</v>
+      </c>
+      <c r="C80" t="s">
+        <v>476</v>
+      </c>
+      <c r="D80" t="s">
+        <v>476</v>
+      </c>
+      <c r="E80" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>647</v>
+      </c>
+      <c r="C81" t="s">
+        <v>363</v>
+      </c>
+      <c r="D81" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E82" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>661</v>
+      </c>
+      <c r="C83" t="s">
+        <v>364</v>
+      </c>
+      <c r="D83" t="s">
+        <v>364</v>
+      </c>
+      <c r="E83" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>656</v>
+      </c>
+      <c r="C84" t="s">
+        <v>480</v>
+      </c>
+      <c r="D84" t="s">
+        <v>511</v>
+      </c>
+      <c r="E84" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C85" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E85" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>650</v>
+      </c>
+      <c r="C86" t="s">
+        <v>481</v>
+      </c>
+      <c r="D86" t="s">
+        <v>512</v>
+      </c>
+      <c r="E86" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
         <v>386</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C87" t="s">
         <v>482</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D87" t="s">
         <v>513</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E87" t="s">
         <v>850</v>
       </c>
     </row>
@@ -9750,7 +10052,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10789,8 +11091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC343C8B-E36B-4649-9A7D-F3F97004823B}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/col_maps.xlsx
+++ b/col_maps.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39932d735537154f/Project/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C26B3F9-9761-4DF4-A607-448F4E127591}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03FBA6C5-C9E2-431B-B83F-551D351029BA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="1667">
   <si>
     <t>报告期</t>
   </si>
@@ -5199,6 +5199,42 @@
   </si>
   <si>
     <t>归属于母公司所有者权益合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利润率[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心利润率[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售费用率[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发费用率[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务费用率[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四费费率[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三费费率[%]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费用率[%]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5585,10 +5621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5683,473 +5720,392 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>249</v>
-      </c>
       <c r="D9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1431</v>
+        <v>1658</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" t="s">
-        <v>250</v>
-      </c>
       <c r="D10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1431</v>
+        <v>1659</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>254</v>
-      </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>1660</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1432</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>255</v>
-      </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>1664</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1432</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" t="s">
-        <v>888</v>
+        <v>1665</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1432</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>1661</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1432</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>1666</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1432</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>1662</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1432</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>1663</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1432</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>1430</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>895</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>870</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1432</v>
+        <v>284</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>305</v>
+      </c>
+      <c r="C19" t="s">
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>872</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1432</v>
+        <v>285</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1433</v>
+        <v>286</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>1433</v>
+        <v>287</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>1433</v>
+        <v>888</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1433</v>
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>896</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>881</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>1433</v>
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1433</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>1433</v>
+        <v>288</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
+        <v>895</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>870</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>1434</v>
+        <v>872</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>873</v>
+        <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
-        <v>874</v>
+        <v>289</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>1435</v>
+        <v>290</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>896</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>1435</v>
+        <v>881</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>297</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>1435</v>
+        <v>24</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>1435</v>
+        <v>25</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>882</v>
+        <v>292</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>1435</v>
@@ -6157,165 +6113,318 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>1435</v>
+        <v>293</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>883</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>1435</v>
+        <v>873</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>299</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1437</v>
+        <v>294</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1437</v>
+        <v>874</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>903</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
-        <v>884</v>
+        <v>296</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>885</v>
+        <v>297</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>919</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>883</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" t="s">
+        <v>903</v>
+      </c>
+      <c r="D51" t="s">
+        <v>884</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" t="s">
+        <v>885</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" t="s">
+        <v>919</v>
+      </c>
+      <c r="D54" t="s">
+        <v>886</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C55" t="s">
         <v>45</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D55" t="s">
         <v>887</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -6328,6 +6437,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3246EA0E-A4DE-45BC-9E03-7A522D530EE9}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7893,6 +8003,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F46761-45B0-4445-94D4-C8608AA10161}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:G84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8701,10 +8812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1285F2E-B767-426D-8E9D-2A00BC051215}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9708,6 +9820,9 @@
       <c r="D63" s="1" t="s">
         <v>1640</v>
       </c>
+      <c r="E63" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
@@ -10059,6 +10174,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA661441-C113-44A1-9942-0E3AE538337A}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11099,6 +11215,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC343C8B-E36B-4649-9A7D-F3F97004823B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12405,6 +12522,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92658BD-4F78-4530-85B7-1E9170AF273E}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13569,6 +13687,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52673C8D-F484-4C3F-A849-7D7AD9BD5657}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="C1:H72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14527,6 +14646,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D0851-86C2-4E27-9846-7067296A5190}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="C1:O255"/>
   <sheetViews>
     <sheetView topLeftCell="J86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17898,6 +18018,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D658B4-69BE-423E-84D2-F8F46D2E3985}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:K320"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -21048,6 +21169,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A375CF7-8775-4EE0-824F-0B08A8EB524C}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="C1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
